--- a/shapes.xlsx
+++ b/shapes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4545" yWindow="0" windowWidth="27285" windowHeight="12285" activeTab="5"/>
+    <workbookView xWindow="6060" yWindow="0" windowWidth="27285" windowHeight="12285" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="dataset1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <sheet name="dataset5" sheetId="5" r:id="rId5"/>
     <sheet name="dataset6" sheetId="6" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">dataset3!$A$1:$B$372</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -367,7 +370,7 @@
   <dimension ref="A1:B56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -829,7 +832,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1245,8 +1250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B372"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2784,7 +2789,7 @@
         <v>8</v>
       </c>
       <c r="B192">
-        <v>116.5</v>
+        <v>116</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -3632,7 +3637,7 @@
         <v>10.9</v>
       </c>
       <c r="B298">
-        <v>63.5</v>
+        <v>63</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
@@ -3680,7 +3685,7 @@
         <v>11.3</v>
       </c>
       <c r="B304">
-        <v>107.5</v>
+        <v>107</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
@@ -3904,7 +3909,7 @@
         <v>13.4</v>
       </c>
       <c r="B332">
-        <v>206.5</v>
+        <v>206</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
@@ -3984,7 +3989,7 @@
         <v>15.7</v>
       </c>
       <c r="B342">
-        <v>227.7</v>
+        <v>228</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
@@ -4000,7 +4005,7 @@
         <v>16.100000000000001</v>
       </c>
       <c r="B344">
-        <v>142.5</v>
+        <v>143</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
@@ -4228,6 +4233,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B372"/>
   <sortState ref="A2:B372">
     <sortCondition ref="A2:A372"/>
   </sortState>
@@ -8892,7 +8898,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/shapes.xlsx
+++ b/shapes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6060" yWindow="0" windowWidth="27285" windowHeight="12285" activeTab="2"/>
+    <workbookView xWindow="7575" yWindow="0" windowWidth="27285" windowHeight="12285" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="dataset1" sheetId="1" r:id="rId1"/>
@@ -1251,7 +1251,7 @@
   <dimension ref="A1:B372"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/shapes.xlsx
+++ b/shapes.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BobDouma\Education\CSA-34306 Ecological Models and Data in R\tutorials\repos\bolker-labs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BobDouma\Education\CSA-34306 Ecological Models and Data in R\2018-2019\labs\bolker-labs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7575" yWindow="0" windowWidth="27285" windowHeight="12285" activeTab="2"/>
+    <workbookView xWindow="9090" yWindow="0" windowWidth="27285" windowHeight="12285" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="dataset1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="7">
   <si>
     <t>x</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>size</t>
+  </si>
+  <si>
+    <t>group</t>
   </si>
 </sst>
 </file>
@@ -1250,7 +1253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B372"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -4469,15 +4472,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C401"/>
+  <dimension ref="A1:D401"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="F244" sqref="F244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -4485,4407 +4488,5610 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.299236651044339</v>
+        <v>0.76390585396438804</v>
       </c>
       <c r="C2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>9.0045910305343604</v>
+        <v>1.2524918187409599</v>
       </c>
       <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>7.1298640640452504</v>
+        <v>3.0678238533437301</v>
       </c>
       <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>9.5701693836599606</v>
+        <v>3.9774495037272599</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>5.0294968928210402</v>
+        <v>0.12834125431254501</v>
       </c>
       <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.14147707726806399</v>
+        <v>2.5968556664884099</v>
       </c>
       <c r="C7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>4.0592340985313102</v>
+        <v>7.8410322801210004</v>
       </c>
       <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>3.3521204418502699</v>
+        <v>2.0743926055729398</v>
       </c>
       <c r="C9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>8.5614266106858796</v>
+        <v>1.4283878821879601</v>
       </c>
       <c r="C10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>8.8062776881270093</v>
+        <v>3.69531907141209</v>
       </c>
       <c r="C11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>3.3450537105090898</v>
+        <v>2.6175679266452798</v>
       </c>
       <c r="C12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>7.1816709893755597</v>
+        <v>4.7756420983932903</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>4.2277731304056898</v>
+        <v>9.4352502585388702</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>8.1459900573827309</v>
+        <v>6.6327727865427697</v>
       </c>
       <c r="C15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>4.6023952891118798</v>
+        <v>0.74384592240676295</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>6.6911910963244701</v>
+        <v>9.9653915432281792</v>
       </c>
       <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>3.5644810996018399</v>
+        <v>2.05441207392141</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>4.4417362124659103</v>
+        <v>8.0875240010209399</v>
       </c>
       <c r="C19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>1.7037944053299701</v>
+        <v>3.6120909359306101</v>
       </c>
       <c r="C20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>6.32112592924386</v>
+        <v>0.428004502318799</v>
       </c>
       <c r="C21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>7.0502986828796601</v>
+        <v>2.9445944004692102</v>
       </c>
       <c r="C22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>4.4490962894633403</v>
+        <v>6.8213735567405802</v>
       </c>
       <c r="C23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>6.9761797646060604</v>
+        <v>3.9500199351459702</v>
       </c>
       <c r="C24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>8.1464716047048604</v>
+        <v>3.7340091750957098</v>
       </c>
       <c r="C25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
-        <v>4.4393941573798701</v>
+        <v>5.6835595960728797</v>
       </c>
       <c r="C26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
-        <v>8.3678618678823096</v>
+        <v>6.1341000022366599</v>
       </c>
       <c r="C27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
-        <v>5.3380501223728096</v>
+        <v>7.5796875637024597</v>
       </c>
       <c r="C28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
-        <v>9.77297459729016</v>
+        <v>5.3299393202178198</v>
       </c>
       <c r="C29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
-        <v>9.7339134663343395E-3</v>
+        <v>7.6482181204482904</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
-        <v>2.3360053217038499</v>
+        <v>3.0091111082583701</v>
       </c>
       <c r="C31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
-        <v>2.7134287194348898</v>
+        <v>4.8666982911527198E-2</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>1.2102301069535299</v>
+        <v>1.98093487648293</v>
       </c>
       <c r="C33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
-        <v>7.0504193915985498</v>
+        <v>4.6552314399741599</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35">
-        <v>5.9705868992023197</v>
+        <v>3.8802138972096101</v>
       </c>
       <c r="C35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36">
-        <v>8.1965011917054706</v>
+        <v>3.5968053247779599</v>
       </c>
       <c r="C36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37">
-        <v>0.90292453765869096</v>
+        <v>3.73370138928294</v>
       </c>
       <c r="C37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38">
-        <v>2.5884251389652499</v>
+        <v>1.5302312374114999</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39">
-        <v>2.0038867904804598</v>
+        <v>3.5601595626212701</v>
       </c>
       <c r="C39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40">
-        <v>3.3379821642301999</v>
+        <v>3.3496363810263601</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41">
-        <v>2.15731273870915</v>
+        <v>0.54398768115788698</v>
       </c>
       <c r="C41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42">
-        <v>5.0334501266479501</v>
+        <v>7.7421589009463796</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43">
-        <v>3.9620855078101198</v>
+        <v>4.84213158953935</v>
       </c>
       <c r="C43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44">
-        <v>0.82091996911913201</v>
+        <v>8.0957048526033795</v>
       </c>
       <c r="C44">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45">
-        <v>8.5595392971299606</v>
+        <v>1.0280034760944501</v>
       </c>
       <c r="C45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46">
-        <v>1.85998132219538</v>
+        <v>5.3074933891184601</v>
       </c>
       <c r="C46">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47">
-        <v>3.45260956790298</v>
+        <v>5.8906144602224204</v>
       </c>
       <c r="C47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48">
-        <v>6.4617386669851804</v>
+        <v>1.45206833025441</v>
       </c>
       <c r="C48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49">
-        <v>7.2004987252876198</v>
+        <v>3.51087348069996</v>
       </c>
       <c r="C49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50">
-        <v>0.57865591719746601</v>
+        <v>3.9774990710429798</v>
       </c>
       <c r="C50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51">
-        <v>9.0212774812243897</v>
+        <v>2.7100448613055099</v>
       </c>
       <c r="C51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52">
-        <v>9.7275559604167903</v>
+        <v>5.38786918390542</v>
       </c>
       <c r="C52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53">
-        <v>5.7022139383479997</v>
+        <v>3.42809479916468</v>
       </c>
       <c r="C53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54">
-        <v>1.59866655943915</v>
+        <v>4.3924645450897497</v>
       </c>
       <c r="C54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55">
-        <v>2.7210397552698899</v>
+        <v>0.13556009391322699</v>
       </c>
       <c r="C55">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56">
-        <v>2.4690892430953699</v>
+        <v>2.9232017183676402</v>
       </c>
       <c r="C56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57">
-        <v>3.4508025180548398</v>
+        <v>7.2495804145000902</v>
       </c>
       <c r="C57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58">
-        <v>5.1248764875344897</v>
+        <v>7.1421811147592997</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59">
-        <v>1.0273193637840401</v>
+        <v>3.55001883814111</v>
       </c>
       <c r="C59">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60">
-        <v>6.2505558412522104</v>
+        <v>9.8843732383102196</v>
       </c>
       <c r="C60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61">
-        <v>5.4321554093621698</v>
+        <v>8.9329787087626809</v>
       </c>
       <c r="C61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62">
-        <v>4.9634117563255096</v>
+        <v>2.09579007700086</v>
       </c>
       <c r="C62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63">
-        <v>5.6279017985798401</v>
+        <v>8.6569485510699504</v>
       </c>
       <c r="C63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64">
-        <v>4.3030336312949702</v>
+        <v>9.9703054199926608</v>
       </c>
       <c r="C64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65">
-        <v>8.6549755372106993</v>
+        <v>2.4489689455367598</v>
       </c>
       <c r="C65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66">
-        <v>4.2050067917443803</v>
+        <v>3.3424703311175099</v>
       </c>
       <c r="C66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67">
-        <v>0.79465822549536802</v>
+        <v>1.72757026040927</v>
       </c>
       <c r="C67">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68">
-        <v>0.14953427948057699</v>
+        <v>3.1268519582226899</v>
       </c>
       <c r="C68">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69">
-        <v>6.7572332336567298</v>
+        <v>9.4349722401238996</v>
       </c>
       <c r="C69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70">
-        <v>7.7258059661835397</v>
+        <v>2.71939921425655</v>
       </c>
       <c r="C70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71">
-        <v>8.64094078307971</v>
+        <v>1.9676660583354499</v>
       </c>
       <c r="C71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72">
-        <v>9.4810073496773803</v>
+        <v>7.6637644111178798</v>
       </c>
       <c r="C72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73">
-        <v>5.60749627416953</v>
+        <v>6.8519423482939601</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74">
-        <v>3.6140770185738802</v>
+        <v>0.10429733898490701</v>
       </c>
       <c r="C74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75">
-        <v>7.9823749884963</v>
+        <v>6.0903501580469301</v>
       </c>
       <c r="C75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76">
-        <v>6.0557513474486804</v>
+        <v>5.03539188066497</v>
       </c>
       <c r="C76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77">
-        <v>1.13856241106987</v>
+        <v>9.6490234276279807</v>
       </c>
       <c r="C77">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78">
-        <v>2.80208705924451</v>
+        <v>2.17367055127397</v>
       </c>
       <c r="C78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79">
-        <v>4.3215180002152902</v>
+        <v>9.6166467410512304</v>
       </c>
       <c r="C79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80">
-        <v>5.1898503815755204</v>
+        <v>9.61577733512968</v>
       </c>
       <c r="C80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81">
-        <v>8.6226771585643291</v>
+        <v>2.6857192162424299</v>
       </c>
       <c r="C81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82">
-        <v>7.0083407033234799</v>
+        <v>5.9666595677845198</v>
       </c>
       <c r="C82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83">
-        <v>4.2047335905954197</v>
+        <v>7.3839643714018202</v>
       </c>
       <c r="C83">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84">
-        <v>6.3869292708113798</v>
+        <v>1.9423962919972799</v>
       </c>
       <c r="C84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85">
-        <v>3.8533594855107398</v>
+        <v>8.3234156086109596</v>
       </c>
       <c r="C85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86">
-        <v>8.8400195119902492</v>
+        <v>3.5210259724408401</v>
       </c>
       <c r="C86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87">
-        <v>4.5709462347440404</v>
+        <v>3.0252607003785701</v>
       </c>
       <c r="C87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88">
-        <v>4.6742984047159597</v>
+        <v>5.2429510257206902</v>
       </c>
       <c r="C88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89">
-        <v>8.6995967966504395</v>
+        <v>2.5614188169129202</v>
       </c>
       <c r="C89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90">
-        <v>8.6269868840463495</v>
+        <v>2.15260177850723</v>
       </c>
       <c r="C90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91">
-        <v>8.4812720282934606</v>
+        <v>3.6801621504128001</v>
       </c>
       <c r="C91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92">
-        <v>4.8700516670942298</v>
+        <v>2.99232583492994</v>
       </c>
       <c r="C92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93">
-        <v>4.18808379909024</v>
+        <v>8.2034877198748308</v>
       </c>
       <c r="C93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94">
-        <v>8.4071863046847302</v>
+        <v>7.4776843213476196</v>
       </c>
       <c r="C94">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95">
-        <v>9.5312375179491902</v>
+        <v>1.67619077954441</v>
       </c>
       <c r="C95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96">
-        <v>7.3323058825917498</v>
+        <v>8.6872419691644591</v>
       </c>
       <c r="C96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97">
-        <v>0.193106471560895</v>
+        <v>4.5391458552330697</v>
       </c>
       <c r="C97">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98">
-        <v>9.6405843901448005</v>
+        <v>8.8958966499194503</v>
       </c>
       <c r="C98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99">
-        <v>8.8707490707747603</v>
+        <v>9.3593678646720893</v>
       </c>
       <c r="C99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100">
-        <v>6.8391664628870803</v>
+        <v>9.4179760478436894</v>
       </c>
       <c r="C100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101">
-        <v>1.4548244257457601</v>
+        <v>2.0335731632076199</v>
       </c>
       <c r="C101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102">
-        <v>7.6452196761965796</v>
+        <v>6.0270115756429696</v>
       </c>
       <c r="C102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103">
-        <v>1.38069946784526</v>
+        <v>6.0100467526353896</v>
       </c>
       <c r="C103">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104">
-        <v>2.90105005959049</v>
+        <v>9.3966559902764892</v>
       </c>
       <c r="C104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105">
-        <v>9.9002696480602008</v>
+        <v>3.4092328790575301</v>
       </c>
       <c r="C105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106">
-        <v>0.71586254052817799</v>
+        <v>6.2293447554111502E-2</v>
       </c>
       <c r="C106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107">
-        <v>0.49671873683109902</v>
+        <v>5.8632204658351803</v>
       </c>
       <c r="C107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108">
-        <v>2.2340106428600799</v>
+        <v>9.9912230973132008</v>
       </c>
       <c r="C108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109">
-        <v>2.0849448884837298</v>
+        <v>0.41911143343895702</v>
       </c>
       <c r="C109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110">
-        <v>2.0320130372420002</v>
+        <v>4.54155463958159</v>
       </c>
       <c r="C110">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111">
-        <v>6.9081572117283896</v>
+        <v>7.2632860066369203</v>
       </c>
       <c r="C111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112">
-        <v>7.7527243341319299</v>
+        <v>9.7228238359093702</v>
       </c>
       <c r="C112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113">
-        <v>1.93467007484287</v>
+        <v>1.28321350784972</v>
       </c>
       <c r="C113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D113">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114">
-        <v>7.2399610187858299</v>
+        <v>8.2795338542200607</v>
       </c>
       <c r="C114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115">
-        <v>2.0791603741236</v>
+        <v>2.52256548264995</v>
       </c>
       <c r="C115">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116">
-        <v>9.0894699515774793</v>
+        <v>7.55480533931404</v>
       </c>
       <c r="C116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117">
-        <v>8.0744109046645498</v>
+        <v>7.70710474811494</v>
       </c>
       <c r="C117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118">
-        <v>5.6201132782734904</v>
+        <v>8.6552356067113596</v>
       </c>
       <c r="C118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119">
-        <v>5.8915361808612898</v>
+        <v>0.53494323045015302</v>
       </c>
       <c r="C119">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120">
-        <v>7.2020794171839997</v>
+        <v>8.8457692321389896</v>
       </c>
       <c r="C120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121">
-        <v>4.65710389893502</v>
+        <v>2.8760078013874599</v>
       </c>
       <c r="C121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122">
-        <v>2.9288989794440599</v>
+        <v>7.4198818835429803</v>
       </c>
       <c r="C122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123">
-        <v>8.2908179913647508</v>
+        <v>5.4649160150438503</v>
       </c>
       <c r="C123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124">
-        <v>1.7531814216636099</v>
+        <v>8.2126578199677205</v>
       </c>
       <c r="C124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125">
-        <v>8.1063830596394801</v>
+        <v>6.5972063993103802</v>
       </c>
       <c r="C125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126">
-        <v>5.7950129290111398</v>
+        <v>0.21666807588189799</v>
       </c>
       <c r="C126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D126">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127">
-        <v>7.0188850653357804</v>
+        <v>8.7288616457953996</v>
       </c>
       <c r="C127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128">
-        <v>0.134685621596873</v>
+        <v>8.5796122299507296</v>
       </c>
       <c r="C128">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
       <c r="B129">
-        <v>1.72833347693086</v>
+        <v>0.53609353490173794</v>
       </c>
       <c r="C129">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
       <c r="B130">
-        <v>5.1934827445074898</v>
+        <v>0.39737600367516301</v>
       </c>
       <c r="C130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
       <c r="B131">
-        <v>6.1958826356567398</v>
+        <v>0.16930725425481799</v>
       </c>
       <c r="C131">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
       <c r="B132">
-        <v>8.1473323050886393</v>
+        <v>6.0860366607084897</v>
       </c>
       <c r="C132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
       <c r="B133">
-        <v>4.2484467220492697</v>
+        <v>8.3395401085726899</v>
       </c>
       <c r="C133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
       <c r="B134">
-        <v>7.9072801326401496</v>
+        <v>9.0598378796130401</v>
       </c>
       <c r="C134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
       <c r="B135">
-        <v>2.19469927018508</v>
+        <v>7.4431202677078501</v>
       </c>
       <c r="C135">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
       <c r="B136">
-        <v>2.72253131726757</v>
+        <v>8.7902924860827607</v>
       </c>
       <c r="C136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
       <c r="B137">
-        <v>6.3198103266768202</v>
+        <v>9.2515095602721004E-2</v>
       </c>
       <c r="C137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D137">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
       <c r="B138">
-        <v>6.0800999333150703</v>
+        <v>2.93993744067848</v>
       </c>
       <c r="C138">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
       <c r="B139">
-        <v>8.5884513752535003</v>
+        <v>9.6596623980440199</v>
       </c>
       <c r="C139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
       <c r="B140">
-        <v>8.6292793322354608</v>
+        <v>7.5282633840106401</v>
       </c>
       <c r="C140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
       <c r="B141">
-        <v>0.93728430569171906</v>
+        <v>0.40568689582869399</v>
       </c>
       <c r="C141">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D141">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
       <c r="B142">
-        <v>3.0376650346443101</v>
+        <v>5.3148957761004603</v>
       </c>
       <c r="C142">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
       <c r="B143">
-        <v>5.8006512839347097</v>
+        <v>8.4543784242123401</v>
       </c>
       <c r="C143">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
       <c r="B144">
-        <v>6.2266966653987801</v>
+        <v>5.7595314853824702</v>
       </c>
       <c r="C144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
       <c r="B145">
-        <v>1.2830251734703799</v>
+        <v>9.17792104650289</v>
       </c>
       <c r="C145">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
       <c r="B146">
-        <v>8.6917797033674997</v>
+        <v>5.6351614324375996</v>
       </c>
       <c r="C146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
       <c r="B147">
-        <v>0.74569977587088898</v>
+        <v>7.4125438905321097</v>
       </c>
       <c r="C147">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
       <c r="B148">
-        <v>3.64460304146633</v>
+        <v>4.1810053144581598</v>
       </c>
       <c r="C148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
       <c r="B149">
-        <v>6.8742428882978901</v>
+        <v>9.5108108525164408</v>
       </c>
       <c r="C149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
       <c r="B150">
-        <v>4.1700574429705703</v>
+        <v>8.9938069414347392</v>
       </c>
       <c r="C150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
       <c r="B151">
-        <v>3.3407757594250098</v>
+        <v>3.5722284810617602</v>
       </c>
       <c r="C151">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
       <c r="B152">
-        <v>4.5177109353244296</v>
+        <v>5.8597986632958099</v>
       </c>
       <c r="C152">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
       <c r="B153">
-        <v>4.1572851501405204</v>
+        <v>5.1920240465551597</v>
       </c>
       <c r="C153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
       <c r="B154">
-        <v>9.8980440944433195</v>
+        <v>8.0563196353614295</v>
       </c>
       <c r="C154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
       <c r="B155">
-        <v>5.7542281178757504</v>
+        <v>7.18367498368025</v>
       </c>
       <c r="C155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
       <c r="B156">
-        <v>2.05777038820088</v>
+        <v>5.4052946576848599</v>
       </c>
       <c r="C156">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
       <c r="B157">
-        <v>6.99393682181835</v>
+        <v>3.5562165034934901</v>
       </c>
       <c r="C157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
       <c r="B158">
-        <v>8.6305475328117591</v>
+        <v>2.18608918134123</v>
       </c>
       <c r="C158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
       <c r="B159">
-        <v>6.22428527334705</v>
+        <v>0.62306338222697399</v>
       </c>
       <c r="C159">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
       <c r="B160">
-        <v>2.1133997733704701</v>
+        <v>8.0489962990395707</v>
       </c>
       <c r="C160">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
       <c r="B161">
-        <v>5.6083468650467703</v>
+        <v>6.3625626545399401</v>
       </c>
       <c r="C161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
       <c r="B162">
-        <v>0.349652385339141</v>
+        <v>0.27297529159113798</v>
       </c>
       <c r="C162">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D162">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
       <c r="B163">
-        <v>2.2848184499889599</v>
+        <v>7.4817965785041496</v>
       </c>
       <c r="C163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
       <c r="B164">
-        <v>4.4042369443923199</v>
+        <v>6.24934888444841</v>
       </c>
       <c r="C164">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
       <c r="B165">
-        <v>2.45703015942127</v>
+        <v>0.47254364239051899</v>
       </c>
       <c r="C165">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
       <c r="B166">
-        <v>9.2589021427556908</v>
+        <v>6.8518794211558998</v>
       </c>
       <c r="C166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
       <c r="B167">
-        <v>0.71492155548185099</v>
+        <v>8.3460224955342692</v>
       </c>
       <c r="C167">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
       <c r="B168">
-        <v>9.1208558483049291</v>
+        <v>9.6489967592060601</v>
       </c>
       <c r="C168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
       <c r="B169">
-        <v>2.4200285808183302</v>
+        <v>2.8055962151847802</v>
       </c>
       <c r="C169">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
       <c r="B170">
-        <v>6.2427389575168499</v>
+        <v>7.8964810818433797</v>
       </c>
       <c r="C170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
       <c r="B171">
-        <v>4.8518977453932202</v>
+        <v>0.88868673657998398</v>
       </c>
       <c r="C171">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
       <c r="B172">
-        <v>6.6334041277878004</v>
+        <v>4.8926789592951501</v>
       </c>
       <c r="C172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
       <c r="B173">
-        <v>7.3572116368450198</v>
+        <v>6.2488662172108898</v>
       </c>
       <c r="C173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
       <c r="B174">
-        <v>8.8289525383152103</v>
+        <v>1.4054355467669699</v>
       </c>
       <c r="C174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
       <c r="B175">
-        <v>5.8287440333515397</v>
+        <v>7.3899452062323698</v>
       </c>
       <c r="C175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
       <c r="B176">
-        <v>2.3087331396527602</v>
+        <v>3.5150259081274302</v>
       </c>
       <c r="C176">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
       <c r="B177">
-        <v>7.7880646754056198</v>
+        <v>4.0804015472531301</v>
       </c>
       <c r="C177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
       <c r="B178">
-        <v>8.4599880874157005</v>
+        <v>2.1586509351618601</v>
       </c>
       <c r="C178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
       <c r="B179">
-        <v>8.5087959771044606</v>
+        <v>1.90926399314776</v>
       </c>
       <c r="C179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
       <c r="B180">
-        <v>4.4667164981365204</v>
+        <v>9.8954529897309804</v>
       </c>
       <c r="C180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
       <c r="B181">
-        <v>1.2048206361942</v>
+        <v>2.0130921364761898</v>
       </c>
       <c r="C181">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
       <c r="B182">
-        <v>6.4334018947556597</v>
+        <v>6.5710851922631305E-2</v>
       </c>
       <c r="C182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D182">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
       <c r="B183">
-        <v>2.9283623117953499</v>
+        <v>4.2150798696093297</v>
       </c>
       <c r="C183">
         <v>1</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
       <c r="B184">
-        <v>1.82359924539924</v>
+        <v>6.3200537743978202</v>
       </c>
       <c r="C184">
         <v>1</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
       <c r="B185">
-        <v>2.40632334491238</v>
+        <v>6.6333360970020303</v>
       </c>
       <c r="C185">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
       <c r="B186">
-        <v>3.56385592836887</v>
+        <v>9.7970535699278098</v>
       </c>
       <c r="C186">
         <v>1</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
       <c r="B187">
-        <v>6.2257327721454203</v>
+        <v>1.3618294335901699</v>
       </c>
       <c r="C187">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D187">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
       <c r="B188">
-        <v>6.2574958545155797</v>
+        <v>7.4468737072311297</v>
       </c>
       <c r="C188">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
       <c r="B189">
-        <v>1.80165832629427</v>
+        <v>6.4660055213607803</v>
       </c>
       <c r="C189">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
       <c r="B190">
-        <v>0.29682375025004099</v>
+        <v>3.9779917849227799</v>
       </c>
       <c r="C190">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
       <c r="B191">
-        <v>7.0517641562037197</v>
+        <v>7.4642700864933396</v>
       </c>
       <c r="C191">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
       <c r="B192">
-        <v>8.5607754159718805</v>
+        <v>2.6980113028548698</v>
       </c>
       <c r="C192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
       <c r="B193">
-        <v>2.1055963495746299</v>
+        <v>7.2443590709008303</v>
       </c>
       <c r="C193">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
       <c r="B194">
-        <v>6.7212081653997302</v>
+        <v>0.94197205733507905</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D194">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
       <c r="B195">
-        <v>7.49664628645405</v>
+        <v>4.6435720380395704</v>
       </c>
       <c r="C195">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
       <c r="B196">
-        <v>7.4665690585970896</v>
+        <v>7.5153725338168398</v>
       </c>
       <c r="C196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
       <c r="B197">
-        <v>3.4328258549794599</v>
+        <v>3.01162252435461</v>
       </c>
       <c r="C197">
         <v>1</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D197">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
       <c r="B198">
-        <v>1.72728681704029</v>
+        <v>3.6459035915322602</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
       <c r="B199">
-        <v>2.5226329918950801</v>
+        <v>4.0568852890282896</v>
       </c>
       <c r="C199">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
       <c r="B200">
-        <v>5.9100639005191598</v>
+        <v>3.9818182936869602</v>
       </c>
       <c r="C200">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
       <c r="B201">
-        <v>4.0488269110210204</v>
+        <v>5.2861264534294596</v>
       </c>
       <c r="C201">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
       <c r="B202">
-        <v>0.31604274408891803</v>
+        <v>9.9726733169518393</v>
       </c>
       <c r="C202">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
       <c r="B203">
-        <v>1.6119631472975</v>
+        <v>7.8062695008702603</v>
       </c>
       <c r="C203">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
       <c r="B204">
-        <v>2.7491310192272098</v>
+        <v>2.9162428039126098</v>
       </c>
       <c r="C204">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D204">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
       <c r="B205">
-        <v>9.1028855834156293</v>
+        <v>8.7402304098941404</v>
       </c>
       <c r="C205">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
       <c r="B206">
-        <v>6.13224607426673</v>
+        <v>4.0286131622269696</v>
       </c>
       <c r="C206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D206">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
       <c r="B207">
-        <v>3.33980120485649</v>
+        <v>9.0671489667147398</v>
       </c>
       <c r="C207">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
       <c r="B208">
-        <v>0.96999193308874998</v>
+        <v>3.8902533706277602E-2</v>
       </c>
       <c r="C208">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D208">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
       <c r="B209">
-        <v>6.3315068744123</v>
+        <v>3.7254959065467101</v>
       </c>
       <c r="C209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
       <c r="B210">
-        <v>7.9359342297539097</v>
+        <v>4.7073740651831004</v>
       </c>
       <c r="C210">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
       <c r="B211">
-        <v>1.7780161625705699</v>
+        <v>2.0417802059091601</v>
       </c>
       <c r="C211">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D211">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
       <c r="B212">
-        <v>0.90290128719061602</v>
+        <v>7.2349304752424404</v>
       </c>
       <c r="C212">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
       <c r="B213">
-        <v>5.1506499503739196</v>
+        <v>8.6386947170831299</v>
       </c>
       <c r="C213">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D213">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
       <c r="B214">
-        <v>1.14307799143717</v>
+        <v>1.6919376957230301</v>
       </c>
       <c r="C214">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D214">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
       <c r="B215">
-        <v>5.3219759184867099</v>
+        <v>9.60292298812419</v>
       </c>
       <c r="C215">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
       <c r="B216">
-        <v>6.6251090425066597</v>
+        <v>9.1958702914416808</v>
       </c>
       <c r="C216">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
       <c r="B217">
-        <v>9.4754538405686599</v>
+        <v>3.72679552063346</v>
       </c>
       <c r="C217">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D217">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
       <c r="B218">
-        <v>7.3856187914498204</v>
+        <v>8.6030294117517805</v>
       </c>
       <c r="C218">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
       <c r="B219">
-        <v>6.7200280679389799</v>
+        <v>3.2953817234374601</v>
       </c>
       <c r="C219">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
       <c r="B220">
-        <v>1.60787354921922</v>
+        <v>0.56550982175394904</v>
       </c>
       <c r="C220">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D220">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
       <c r="B221">
-        <v>6.3084830879233804</v>
+        <v>6.2631041835993502</v>
       </c>
       <c r="C221">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
       <c r="B222">
-        <v>2.63270696857944</v>
+        <v>1.24074961990118</v>
       </c>
       <c r="C222">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D222">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
       <c r="B223">
-        <v>0.678393228445202</v>
+        <v>5.1187378121540004</v>
       </c>
       <c r="C223">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D223">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
       <c r="B224">
-        <v>5.34183235373348</v>
+        <v>8.3692636503838003</v>
       </c>
       <c r="C224">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
       <c r="B225">
-        <v>1.7680518748238701</v>
+        <v>3.9632939454168099</v>
       </c>
       <c r="C225">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D225">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
       <c r="B226">
-        <v>3.2767825690098098</v>
+        <v>4.7394891292788097</v>
       </c>
       <c r="C226">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
       <c r="B227">
-        <v>1.55877270037308</v>
+        <v>2.7159781078808001</v>
       </c>
       <c r="C227">
         <v>2</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
       <c r="B228">
-        <v>4.2720270343124902</v>
+        <v>8.0523484549485094</v>
       </c>
       <c r="C228">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
       <c r="B229">
-        <v>7.2408210276626104</v>
+        <v>5.8429094124585399</v>
       </c>
       <c r="C229">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
       <c r="B230">
-        <v>7.5307579780928799</v>
+        <v>3.2480382313951801</v>
       </c>
       <c r="C230">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D230">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
       <c r="B231">
-        <v>8.1426013191230595</v>
+        <v>8.6748750787228293</v>
       </c>
       <c r="C231">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
       <c r="B232">
-        <v>0.56064731907099496</v>
+        <v>0.66050082212313999</v>
       </c>
       <c r="C232">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
       <c r="B233">
-        <v>4.7591210342943704</v>
+        <v>0.66771086305379901</v>
       </c>
       <c r="C233">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D233">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
       <c r="B234">
-        <v>1.7010029847733701</v>
+        <v>6.2678599311038896</v>
       </c>
       <c r="C234">
         <v>2</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
       <c r="B235">
-        <v>4.8649395373649904</v>
+        <v>7.7055094880051902</v>
       </c>
       <c r="C235">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
       <c r="B236">
-        <v>6.83370597893372</v>
+        <v>0.60711414087563798</v>
       </c>
       <c r="C236">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D236">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
       <c r="B237">
-        <v>6.6327836457639897</v>
+        <v>4.2597972555085999</v>
       </c>
       <c r="C237">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D237">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
       <c r="B238">
-        <v>8.4750030492432398</v>
+        <v>6.6487631085328802</v>
       </c>
       <c r="C238">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>238</v>
       </c>
       <c r="B239">
-        <v>9.7937324619852006</v>
+        <v>7.9909054213203499</v>
       </c>
       <c r="C239">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>239</v>
       </c>
       <c r="B240">
-        <v>9.0965044521726703</v>
+        <v>9.3606321094557607</v>
       </c>
       <c r="C240">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>240</v>
       </c>
       <c r="B241">
-        <v>9.4997660629451293</v>
+        <v>7.0023114653304201</v>
       </c>
       <c r="C241">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>241</v>
       </c>
       <c r="B242">
-        <v>6.1600284115411297</v>
+        <v>6.1940836347639596</v>
       </c>
       <c r="C242">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D242">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>242</v>
       </c>
       <c r="B243">
-        <v>3.6708504450507502</v>
+        <v>3.8569537946022998</v>
       </c>
       <c r="C243">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D243">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>243</v>
       </c>
       <c r="B244">
-        <v>0.48216673079878097</v>
+        <v>6.4419293846003702</v>
       </c>
       <c r="C244">
         <v>2</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>244</v>
       </c>
       <c r="B245">
-        <v>0.86646631360054005</v>
+        <v>7.5169823947362602</v>
       </c>
       <c r="C245">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>245</v>
       </c>
       <c r="B246">
-        <v>1.2673906586132899</v>
+        <v>7.1132074249908301</v>
       </c>
       <c r="C246">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>246</v>
       </c>
       <c r="B247">
-        <v>3.1310578738339201</v>
+        <v>7.8521213051862997</v>
       </c>
       <c r="C247">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>247</v>
       </c>
       <c r="B248">
-        <v>5.3098550508730096</v>
+        <v>1.7709392844699301</v>
       </c>
       <c r="C248">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D248">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>248</v>
       </c>
       <c r="B249">
-        <v>8.8965082936920208</v>
+        <v>7.09494449198246</v>
       </c>
       <c r="C249">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>249</v>
       </c>
       <c r="B250">
-        <v>6.6453834436833903</v>
+        <v>8.5107138031162304</v>
       </c>
       <c r="C250">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>250</v>
       </c>
       <c r="B251">
-        <v>1.36767260031775</v>
+        <v>6.5933268913067904</v>
       </c>
       <c r="C251">
         <v>2</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>251</v>
       </c>
       <c r="B252">
-        <v>6.9764024647884098</v>
+        <v>9.8278781771659904</v>
       </c>
       <c r="C252">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>252</v>
       </c>
       <c r="B253">
-        <v>1.57499192282557</v>
+        <v>1.7224261490628101</v>
       </c>
       <c r="C253">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>253</v>
       </c>
       <c r="B254">
-        <v>9.5100585557520407</v>
+        <v>0.94837762415409099</v>
       </c>
       <c r="C254">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D254">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>254</v>
       </c>
       <c r="B255">
-        <v>3.3116240706294802</v>
+        <v>9.3134889774955791</v>
       </c>
       <c r="C255">
         <v>2</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>255</v>
       </c>
       <c r="B256">
-        <v>5.7392972707748404</v>
+        <v>6.1858232761733198</v>
       </c>
       <c r="C256">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>256</v>
       </c>
       <c r="B257">
-        <v>0.83480977453291405</v>
+        <v>0.38637755205854801</v>
       </c>
       <c r="C257">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D257">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>257</v>
       </c>
       <c r="B258">
-        <v>9.4488082407042402</v>
+        <v>8.2237361138686502</v>
       </c>
       <c r="C258">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>258</v>
       </c>
       <c r="B259">
-        <v>4.5711520640179497</v>
+        <v>2.69093407783657</v>
       </c>
       <c r="C259">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D259">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>259</v>
       </c>
       <c r="B260">
-        <v>0.411333907395601</v>
+        <v>9.4262953056022507</v>
       </c>
       <c r="C260">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>260</v>
       </c>
       <c r="B261">
-        <v>2.75506982812658</v>
+        <v>0.26822749059647299</v>
       </c>
       <c r="C261">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D261">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>261</v>
       </c>
       <c r="B262">
-        <v>9.4238164462149108</v>
+        <v>5.0591951468959504</v>
       </c>
       <c r="C262">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>262</v>
       </c>
       <c r="B263">
-        <v>7.4115179548971399</v>
+        <v>8.0239047948271001</v>
       </c>
       <c r="C263">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>263</v>
       </c>
       <c r="B264">
-        <v>1.8330893828533601</v>
+        <v>8.8934147078543901</v>
       </c>
       <c r="C264">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>264</v>
       </c>
       <c r="B265">
-        <v>3.4727157186716799</v>
+        <v>3.1316060596145698</v>
       </c>
       <c r="C265">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>265</v>
       </c>
       <c r="B266">
-        <v>1.64157475577667</v>
+        <v>0.17105567501857899</v>
       </c>
       <c r="C266">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D266">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>266</v>
       </c>
       <c r="B267">
-        <v>3.1320781097747399</v>
+        <v>4.0817748592235104</v>
       </c>
       <c r="C267">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D267">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>267</v>
       </c>
       <c r="B268">
-        <v>4.5051737385801998</v>
+        <v>8.8627723581157607</v>
       </c>
       <c r="C268">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>268</v>
       </c>
       <c r="B269">
-        <v>3.5700361547060302</v>
+        <v>2.0018196501769099</v>
       </c>
       <c r="C269">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D269">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>269</v>
       </c>
       <c r="B270">
-        <v>2.31905340682715</v>
+        <v>7.4612730066291997</v>
       </c>
       <c r="C270">
         <v>2</v>
       </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>270</v>
       </c>
       <c r="B271">
-        <v>4.5161933847703004</v>
+        <v>0.42519639246165802</v>
       </c>
       <c r="C271">
         <v>2</v>
       </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D271">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>271</v>
       </c>
       <c r="B272">
-        <v>7.33525043120608</v>
+        <v>4.8234738735482097</v>
       </c>
       <c r="C272">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>272</v>
       </c>
       <c r="B273">
-        <v>9.1699253767728806</v>
+        <v>5.5026930756866896</v>
       </c>
       <c r="C273">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>273</v>
       </c>
       <c r="B274">
-        <v>6.8725709780119404</v>
+        <v>3.9783890126273</v>
       </c>
       <c r="C274">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>274</v>
       </c>
       <c r="B275">
-        <v>8.75833765137941</v>
+        <v>3.3181113004684399</v>
       </c>
       <c r="C275">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>275</v>
       </c>
       <c r="B276">
-        <v>1.0437120776623501</v>
+        <v>7.5382938887924</v>
       </c>
       <c r="C276">
         <v>2</v>
       </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>276</v>
       </c>
       <c r="B277">
-        <v>9.2595635354518908</v>
+        <v>4.46002616547048</v>
       </c>
       <c r="C277">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>277</v>
       </c>
       <c r="B278">
-        <v>9.2073189048096502</v>
+        <v>8.9110916294157505</v>
       </c>
       <c r="C278">
         <v>2</v>
       </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>278</v>
       </c>
       <c r="B279">
-        <v>5.3145079850219199</v>
+        <v>3.0273399665020402</v>
       </c>
       <c r="C279">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D279">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>279</v>
       </c>
       <c r="B280">
-        <v>5.8960187574848497</v>
+        <v>1.5043492708355199</v>
       </c>
       <c r="C280">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>280</v>
       </c>
       <c r="B281">
-        <v>7.5249731657095298</v>
+        <v>9.0477356128394604</v>
       </c>
       <c r="C281">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>281</v>
       </c>
       <c r="B282">
-        <v>9.7386148362420499</v>
+        <v>3.6974054179154301</v>
       </c>
       <c r="C282">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D282">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>282</v>
       </c>
       <c r="B283">
-        <v>0.49319636775180697</v>
+        <v>2.0434317225590299</v>
       </c>
       <c r="C283">
         <v>2</v>
       </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>283</v>
       </c>
       <c r="B284">
-        <v>7.7809447189793</v>
+        <v>4.3903368897736099</v>
       </c>
       <c r="C284">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>284</v>
       </c>
       <c r="B285">
-        <v>1.13579168450087</v>
+        <v>8.2322090258821792</v>
       </c>
       <c r="C285">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>285</v>
       </c>
       <c r="B286">
-        <v>3.07141321245581</v>
+        <v>6.2715951190330097</v>
       </c>
       <c r="C286">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>286</v>
       </c>
       <c r="B287">
-        <v>4.32644026353955</v>
+        <v>1.7141575529240101</v>
       </c>
       <c r="C287">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D287">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>287</v>
       </c>
       <c r="B288">
-        <v>4.0840615518391097</v>
+        <v>8.0879596224985999</v>
       </c>
       <c r="C288">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>288</v>
       </c>
       <c r="B289">
-        <v>3.8963393308222298</v>
+        <v>0.95449371496215496</v>
       </c>
       <c r="C289">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D289">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>289</v>
       </c>
       <c r="B290">
-        <v>0.25622831191867601</v>
+        <v>1.4031245652586199</v>
       </c>
       <c r="C290">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>290</v>
       </c>
       <c r="B291">
-        <v>3.77817956497893</v>
+        <v>9.7527334652841091</v>
       </c>
       <c r="C291">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>291</v>
       </c>
       <c r="B292">
-        <v>2.6986198732629401</v>
+        <v>9.46486371103674</v>
       </c>
       <c r="C292">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>292</v>
       </c>
       <c r="B293">
-        <v>5.1057946146465802</v>
+        <v>5.2576399082317904</v>
       </c>
       <c r="C293">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D293">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>293</v>
       </c>
       <c r="B294">
-        <v>3.7211945909075399</v>
+        <v>6.5743965795263604</v>
       </c>
       <c r="C294">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>294</v>
       </c>
       <c r="B295">
-        <v>2.73543635150418</v>
+        <v>2.1265739039517899</v>
       </c>
       <c r="C295">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>295</v>
       </c>
       <c r="B296">
-        <v>8.8559624180197698</v>
+        <v>4.4311411143280601</v>
       </c>
       <c r="C296">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>296</v>
       </c>
       <c r="B297">
-        <v>0.257432362996042</v>
+        <v>4.8676828853786001</v>
       </c>
       <c r="C297">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D297">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>297</v>
       </c>
       <c r="B298">
-        <v>2.9544274695217601</v>
+        <v>8.7302918871864694</v>
       </c>
       <c r="C298">
         <v>2</v>
       </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>298</v>
       </c>
       <c r="B299">
-        <v>0.87883088272064902</v>
+        <v>1.6083008609712099</v>
       </c>
       <c r="C299">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>299</v>
       </c>
       <c r="B300">
-        <v>9.2603860609233397</v>
+        <v>8.4262391575612092</v>
       </c>
       <c r="C300">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>300</v>
       </c>
       <c r="B301">
-        <v>8.5503178020007908</v>
+        <v>1.2700200523249801</v>
       </c>
       <c r="C301">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D301">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>301</v>
       </c>
       <c r="B302">
-        <v>9.1024064994417095</v>
+        <v>4.6654236596077698</v>
       </c>
       <c r="C302">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D302">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>302</v>
       </c>
       <c r="B303">
-        <v>1.21886658482254</v>
+        <v>3.5586600308306502</v>
       </c>
       <c r="C303">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>303</v>
       </c>
       <c r="B304">
-        <v>2.7161200600676199</v>
+        <v>9.0904310718178696</v>
       </c>
       <c r="C304">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>304</v>
       </c>
       <c r="B305">
-        <v>2.9736883402802099</v>
+        <v>2.87943978561088</v>
       </c>
       <c r="C305">
         <v>2</v>
       </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>305</v>
       </c>
       <c r="B306">
-        <v>3.4535927954129901</v>
+        <v>5.0081377918832004</v>
       </c>
       <c r="C306">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>306</v>
       </c>
       <c r="B307">
-        <v>6.6604142682626799</v>
+        <v>9.1265610419213807</v>
       </c>
       <c r="C307">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>307</v>
       </c>
       <c r="B308">
-        <v>8.0258859065361303</v>
+        <v>2.06345313228667</v>
       </c>
       <c r="C308">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>308</v>
       </c>
       <c r="B309">
-        <v>1.0154070798307699</v>
+        <v>8.6827578069642204</v>
       </c>
       <c r="C309">
         <v>2</v>
       </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>309</v>
       </c>
       <c r="B310">
-        <v>8.2663591555319709</v>
+        <v>8.2414385071024299</v>
       </c>
       <c r="C310">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>310</v>
       </c>
       <c r="B311">
-        <v>1.9912151456810501</v>
+        <v>7.6659997901879304</v>
       </c>
       <c r="C311">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>311</v>
       </c>
       <c r="B312">
-        <v>0.72711311513557997</v>
+        <v>5.7371703092940196</v>
       </c>
       <c r="C312">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D312">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>312</v>
       </c>
       <c r="B313">
-        <v>0.42278443230315998</v>
+        <v>6.2398694292642203</v>
       </c>
       <c r="C313">
         <v>2</v>
       </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D313">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>313</v>
       </c>
       <c r="B314">
-        <v>5.6661375239491498</v>
+        <v>0.94779834616929304</v>
       </c>
       <c r="C314">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D314">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>314</v>
       </c>
       <c r="B315">
-        <v>0.454382409807295</v>
+        <v>9.2661510151810909</v>
       </c>
       <c r="C315">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>315</v>
       </c>
       <c r="B316">
-        <v>5.6892007170245096</v>
+        <v>8.5671841679140908</v>
       </c>
       <c r="C316">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>316</v>
       </c>
       <c r="B317">
-        <v>3.9556366787292099</v>
+        <v>4.84140780521557</v>
       </c>
       <c r="C317">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D317">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>317</v>
       </c>
       <c r="B318">
-        <v>2.2805660613812502</v>
+        <v>4.8627606313675598</v>
       </c>
       <c r="C318">
         <v>2</v>
       </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>318</v>
       </c>
       <c r="B319">
-        <v>5.6138662830926496</v>
+        <v>1.04103248333558</v>
       </c>
       <c r="C319">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D319">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>319</v>
       </c>
       <c r="B320">
-        <v>1.58692532451823</v>
+        <v>8.4561907453462499</v>
       </c>
       <c r="C320">
         <v>2</v>
       </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>320</v>
       </c>
       <c r="B321">
-        <v>7.3200055980123597</v>
+        <v>2.7517811092548099</v>
       </c>
       <c r="C321">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D321">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>321</v>
       </c>
       <c r="B322">
-        <v>6.5195864555425898</v>
+        <v>0.46355704078450799</v>
       </c>
       <c r="C322">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D322">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>322</v>
       </c>
       <c r="B323">
-        <v>4.2698866804130402</v>
+        <v>1.95511030033231</v>
       </c>
       <c r="C323">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D323">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>323</v>
       </c>
       <c r="B324">
-        <v>6.4729879540391302</v>
+        <v>4.7297752322629103</v>
       </c>
       <c r="C324">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>324</v>
       </c>
       <c r="B325">
-        <v>1.4591275621205599</v>
+        <v>6.6115164430812001</v>
       </c>
       <c r="C325">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>325</v>
       </c>
       <c r="B326">
-        <v>0.271842246875167</v>
+        <v>1.7875505750998899</v>
       </c>
       <c r="C326">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>326</v>
       </c>
       <c r="B327">
-        <v>6.6067634895443899</v>
+        <v>4.3294574972242099</v>
       </c>
       <c r="C327">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>327</v>
       </c>
       <c r="B328">
-        <v>4.2325304308906198</v>
+        <v>1.77786371670663</v>
       </c>
       <c r="C328">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>328</v>
       </c>
       <c r="B329">
-        <v>8.8131322851404494</v>
+        <v>6.1089566117152598</v>
       </c>
       <c r="C329">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>329</v>
       </c>
       <c r="B330">
-        <v>3.0947363469749698</v>
+        <v>9.7723471233621204</v>
       </c>
       <c r="C330">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>330</v>
       </c>
       <c r="B331">
-        <v>5.3133252332918302</v>
+        <v>5.8158731460571298</v>
       </c>
       <c r="C331">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D331">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>331</v>
       </c>
       <c r="B332">
-        <v>4.7691206750459996</v>
+        <v>8.7588846427388507</v>
       </c>
       <c r="C332">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>332</v>
       </c>
       <c r="B333">
-        <v>0.30987283214926697</v>
+        <v>4.2414636583998799</v>
       </c>
       <c r="C333">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>333</v>
       </c>
       <c r="B334">
-        <v>4.3440268677659297</v>
+        <v>0.222956915386021</v>
       </c>
       <c r="C334">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D334">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>334</v>
       </c>
       <c r="B335">
-        <v>8.7346969032660091</v>
+        <v>6.84904101537541</v>
       </c>
       <c r="C335">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D335">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>335</v>
       </c>
       <c r="B336">
-        <v>2.7771365595981501</v>
+        <v>7.20383498817682</v>
       </c>
       <c r="C336">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>336</v>
       </c>
       <c r="B337">
-        <v>0.75086520984768901</v>
+        <v>9.1128944396041298</v>
       </c>
       <c r="C337">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>337</v>
       </c>
       <c r="B338">
-        <v>0.17925573978573101</v>
+        <v>0.57188646169379398</v>
       </c>
       <c r="C338">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D338">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>338</v>
       </c>
       <c r="B339">
-        <v>0.27008867124095598</v>
+        <v>9.0396062424406392</v>
       </c>
       <c r="C339">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>339</v>
       </c>
       <c r="B340">
-        <v>6.5256423503160503</v>
+        <v>3.37504020659253</v>
       </c>
       <c r="C340">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>340</v>
       </c>
       <c r="B341">
-        <v>7.4563462543301302</v>
+        <v>3.5976718645542902E-2</v>
       </c>
       <c r="C341">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D341">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>341</v>
       </c>
       <c r="B342">
-        <v>2.79156308621168</v>
+        <v>7.5971421785652602</v>
       </c>
       <c r="C342">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>342</v>
       </c>
       <c r="B343">
-        <v>8.3450402272865194</v>
+        <v>0.33516843337565699</v>
       </c>
       <c r="C343">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>343</v>
       </c>
       <c r="B344">
-        <v>4.6792805264703903</v>
+        <v>4.3786126235499996</v>
       </c>
       <c r="C344">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D344">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>344</v>
       </c>
       <c r="B345">
-        <v>5.9521457063965499</v>
+        <v>7.1117842220701304</v>
       </c>
       <c r="C345">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D345">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>345</v>
       </c>
       <c r="B346">
-        <v>0.450358006637543</v>
+        <v>5.5133693059906399</v>
       </c>
       <c r="C346">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>346</v>
       </c>
       <c r="B347">
-        <v>8.4399251593276894</v>
+        <v>5.9948738082312003</v>
       </c>
       <c r="C347">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>347</v>
       </c>
       <c r="B348">
-        <v>0.129158629570156</v>
+        <v>9.4289460126310605</v>
       </c>
       <c r="C348">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D348">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>348</v>
       </c>
       <c r="B349">
-        <v>1.91467271652073</v>
+        <v>6.0831392626278102</v>
       </c>
       <c r="C349">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>349</v>
       </c>
       <c r="B350">
-        <v>6.32501360727474</v>
+        <v>9.0090857329778409</v>
       </c>
       <c r="C350">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>350</v>
       </c>
       <c r="B351">
-        <v>2.2853400884196202</v>
+        <v>1.6987253818660999</v>
       </c>
       <c r="C351">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D351">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>351</v>
       </c>
       <c r="B352">
-        <v>9.2115818616002798</v>
+        <v>3.04644442396238</v>
       </c>
       <c r="C352">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>352</v>
       </c>
       <c r="B353">
-        <v>5.89304336812347</v>
+        <v>7.5469571934081596</v>
       </c>
       <c r="C353">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>353</v>
       </c>
       <c r="B354">
-        <v>2.2006020578555798</v>
+        <v>6.0339830606244496</v>
       </c>
       <c r="C354">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D354">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>354</v>
       </c>
       <c r="B355">
-        <v>4.3188494443893397</v>
+        <v>5.5752691091038296</v>
       </c>
       <c r="C355">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D355">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>355</v>
       </c>
       <c r="B356">
-        <v>2.64718915801495</v>
+        <v>8.0652505252510291</v>
       </c>
       <c r="C356">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D356">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>356</v>
       </c>
       <c r="B357">
-        <v>8.6565017770044506</v>
+        <v>4.3330542696639904</v>
       </c>
       <c r="C357">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D357">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>357</v>
       </c>
       <c r="B358">
-        <v>1.25659744953737</v>
+        <v>1.7918632179498699</v>
       </c>
       <c r="C358">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D358">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>358</v>
       </c>
       <c r="B359">
-        <v>4.2791599128395301</v>
+        <v>7.7020221506245399</v>
       </c>
       <c r="C359">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>359</v>
       </c>
       <c r="B360">
-        <v>3.5626891581341602</v>
+        <v>2.17054642504081</v>
       </c>
       <c r="C360">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D360">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>360</v>
       </c>
       <c r="B361">
-        <v>3.72579929651693</v>
+        <v>2.5474407570436601</v>
       </c>
       <c r="C361">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D361">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>361</v>
       </c>
       <c r="B362">
-        <v>8.3300837478600407</v>
+        <v>0.67937151761725501</v>
       </c>
       <c r="C362">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D362">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>362</v>
       </c>
       <c r="B363">
-        <v>8.5893474868498707</v>
+        <v>0.90023267548531305</v>
       </c>
       <c r="C363">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D363">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>363</v>
       </c>
       <c r="B364">
-        <v>1.2106116698123499</v>
+        <v>8.4683269984088803</v>
       </c>
       <c r="C364">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>364</v>
       </c>
       <c r="B365">
-        <v>0.89930053567513801</v>
+        <v>4.1925860056653601</v>
       </c>
       <c r="C365">
         <v>2</v>
       </c>
-    </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D365">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>365</v>
       </c>
       <c r="B366">
-        <v>8.7027301592752302</v>
+        <v>7.2370733553543696</v>
       </c>
       <c r="C366">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>366</v>
       </c>
       <c r="B367">
-        <v>2.4582223035395101</v>
+        <v>9.8990543861873395</v>
       </c>
       <c r="C367">
         <v>2</v>
       </c>
-    </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>367</v>
       </c>
       <c r="B368">
-        <v>2.9228190984576901</v>
+        <v>3.0720500973984599</v>
       </c>
       <c r="C368">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D368">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>368</v>
       </c>
       <c r="B369">
-        <v>9.7040716372430307</v>
+        <v>6.0766165307723004</v>
       </c>
       <c r="C369">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>369</v>
       </c>
       <c r="B370">
-        <v>4.92741743568331</v>
+        <v>5.8879362838342804</v>
       </c>
       <c r="C370">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>370</v>
       </c>
       <c r="B371">
-        <v>2.5140454224310802</v>
+        <v>3.4680628520436598</v>
       </c>
       <c r="C371">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D371">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>371</v>
       </c>
       <c r="B372">
-        <v>4.5845700916834202</v>
+        <v>3.4265272831544298</v>
       </c>
       <c r="C372">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D372">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>372</v>
       </c>
       <c r="B373">
-        <v>1.33351031923667</v>
+        <v>0.65890512196347095</v>
       </c>
       <c r="C373">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D373">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>373</v>
       </c>
       <c r="B374">
-        <v>0.106089932378381</v>
+        <v>8.5503416811116004</v>
       </c>
       <c r="C374">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>374</v>
       </c>
       <c r="B375">
-        <v>2.3989580711349801</v>
+        <v>5.0960691459476903</v>
       </c>
       <c r="C375">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>375</v>
       </c>
       <c r="B376">
-        <v>3.5542198969051202</v>
+        <v>5.4687938885763296</v>
       </c>
       <c r="C376">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>376</v>
       </c>
       <c r="B377">
-        <v>1.1944407620467199</v>
+        <v>1.46731819491833</v>
       </c>
       <c r="C377">
         <v>2</v>
       </c>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D377">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>377</v>
       </c>
       <c r="B378">
-        <v>8.2164238276891393</v>
+        <v>5.4585683159530198</v>
       </c>
       <c r="C378">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D378">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>378</v>
       </c>
       <c r="B379">
-        <v>8.5262326383963192</v>
+        <v>9.6763502690009808</v>
       </c>
       <c r="C379">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>379</v>
       </c>
       <c r="B380">
-        <v>7.6177960960194504</v>
+        <v>4.7070622630417303</v>
       </c>
       <c r="C380">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D380">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>380</v>
       </c>
       <c r="B381">
-        <v>9.2535208188928699</v>
+        <v>1.17215446662158</v>
       </c>
       <c r="C381">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D381">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>381</v>
       </c>
       <c r="B382">
-        <v>8.5728292400017398</v>
+        <v>8.8750551128759998</v>
       </c>
       <c r="C382">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>382</v>
       </c>
       <c r="B383">
-        <v>5.2603484177961901</v>
+        <v>5.6736986758187404</v>
       </c>
       <c r="C383">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>383</v>
       </c>
       <c r="B384">
-        <v>8.0128697259351593</v>
+        <v>3.58697939664125</v>
       </c>
       <c r="C384">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D384">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>384</v>
       </c>
       <c r="B385">
-        <v>0.26586130727082502</v>
+        <v>2.0021646795794399</v>
       </c>
       <c r="C385">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D385">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>385</v>
       </c>
       <c r="B386">
-        <v>7.4389331485144803</v>
+        <v>7.6874216180294797</v>
       </c>
       <c r="C386">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D386">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>386</v>
       </c>
       <c r="B387">
-        <v>4.3475919496267998</v>
+        <v>8.6309112329035997</v>
       </c>
       <c r="C387">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>387</v>
       </c>
       <c r="B388">
-        <v>7.9061606409959504</v>
+        <v>7.2365334350615704</v>
       </c>
       <c r="C388">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>388</v>
       </c>
       <c r="B389">
-        <v>1.1414275621064001</v>
+        <v>1.0180479567498</v>
       </c>
       <c r="C389">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D389">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>389</v>
       </c>
       <c r="B390">
-        <v>2.1160637773573399</v>
+        <v>9.1180132282897794</v>
       </c>
       <c r="C390">
         <v>2</v>
       </c>
-    </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>390</v>
       </c>
       <c r="B391">
-        <v>0.32219229498878099</v>
+        <v>8.2782385475002194</v>
       </c>
       <c r="C391">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>391</v>
       </c>
       <c r="B392">
-        <v>0.67095027538016405</v>
+        <v>0.63022507121786497</v>
       </c>
       <c r="C392">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D392">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>392</v>
       </c>
       <c r="B393">
-        <v>3.4004281647503398</v>
+        <v>1.17319636279717</v>
       </c>
       <c r="C393">
         <v>2</v>
       </c>
-    </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D393">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>393</v>
       </c>
       <c r="B394">
-        <v>7.1958939731121099</v>
+        <v>8.4680450079031306</v>
       </c>
       <c r="C394">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D394">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>394</v>
       </c>
       <c r="B395">
-        <v>1.8787688994780201</v>
+        <v>4.1009680018760299</v>
       </c>
       <c r="C395">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D395">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>395</v>
       </c>
       <c r="B396">
-        <v>6.8517826125025696</v>
+        <v>3.5520232934504699</v>
       </c>
       <c r="C396">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D396">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>396</v>
       </c>
       <c r="B397">
-        <v>4.8911560699343699</v>
+        <v>5.9955816483125099</v>
       </c>
       <c r="C397">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>397</v>
       </c>
       <c r="B398">
-        <v>2.6563844713382401</v>
+        <v>2.8657494788058102</v>
       </c>
       <c r="C398">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D398">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>398</v>
       </c>
       <c r="B399">
-        <v>3.9028042205609399</v>
+        <v>0.48157406970858602</v>
       </c>
       <c r="C399">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D399">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>399</v>
       </c>
       <c r="B400">
-        <v>6.7983349808491802</v>
+        <v>6.8483703513629699</v>
       </c>
       <c r="C400">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D400">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>400</v>
       </c>
       <c r="B401">
-        <v>0.76708243694156397</v>
+        <v>6.6096528479829404</v>
       </c>
       <c r="C401">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="D401">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/shapes.xlsx
+++ b/shapes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9090" yWindow="0" windowWidth="27285" windowHeight="12285" activeTab="4"/>
+    <workbookView xWindow="10605" yWindow="0" windowWidth="27285" windowHeight="12285" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="dataset1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="7">
   <si>
     <t>x</t>
   </si>
@@ -833,411 +833,419 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>0.226556276902556</v>
-      </c>
-      <c r="B1">
-        <v>0.37133448619311199</v>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1.7764957156032299</v>
+        <v>0.226556276902556</v>
       </c>
       <c r="B2">
-        <v>2.5097803200125299</v>
+        <v>0.37133448619311199</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>5.9577176813036203</v>
+        <v>1.7764957156032299</v>
       </c>
       <c r="B3">
-        <v>5.7966911657508904</v>
+        <v>2.5097803200125299</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>11.8844874203205</v>
+        <v>5.9577176813036203</v>
       </c>
       <c r="B4">
-        <v>10.112742967359999</v>
+        <v>5.7966911657508904</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>12.0485392399132</v>
+        <v>11.8844874203205</v>
       </c>
       <c r="B5">
-        <v>12.4650633504298</v>
+        <v>10.112742967359999</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>17.229064414277701</v>
+        <v>12.0485392399132</v>
       </c>
       <c r="B6">
-        <v>11.4250943568092</v>
+        <v>12.4650633504298</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>23.423782549798499</v>
+        <v>17.229064414277701</v>
       </c>
       <c r="B7">
-        <v>17.960471135828499</v>
+        <v>11.4250943568092</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>24.919410888105599</v>
+        <v>23.423782549798499</v>
       </c>
       <c r="B8">
-        <v>14.425759547428999</v>
+        <v>17.960471135828499</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>31.1387861147523</v>
+        <v>24.919410888105599</v>
       </c>
       <c r="B9">
-        <v>13.306097568264301</v>
+        <v>14.425759547428999</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>32.464865641668403</v>
+        <v>31.1387861147523</v>
       </c>
       <c r="B10">
-        <v>13.4581378571744</v>
+        <v>13.306097568264301</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>36.958191450685298</v>
+        <v>32.464865641668403</v>
       </c>
       <c r="B11">
-        <v>14.5503233792647</v>
+        <v>13.4581378571744</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>37.497352249920397</v>
+        <v>36.958191450685298</v>
       </c>
       <c r="B12">
-        <v>14.2108878410447</v>
+        <v>14.5503233792647</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>38.646657066419699</v>
+        <v>37.497352249920397</v>
       </c>
       <c r="B13">
-        <v>15.648441277879799</v>
+        <v>14.2108878410447</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>46.591573674231803</v>
+        <v>38.646657066419699</v>
       </c>
       <c r="B14">
-        <v>17.231049737181099</v>
+        <v>15.648441277879799</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>47.593731991946697</v>
+        <v>46.591573674231803</v>
       </c>
       <c r="B15">
-        <v>16.3776864472892</v>
+        <v>17.231049737181099</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>48.405038146302097</v>
+        <v>47.593731991946697</v>
       </c>
       <c r="B16">
-        <v>16.298103690341001</v>
+        <v>16.3776864472892</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>52.9056262690574</v>
+        <v>48.405038146302097</v>
       </c>
       <c r="B17">
-        <v>17.836995474350601</v>
+        <v>16.298103690341001</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>53.8640661165118</v>
+        <v>52.9056262690574</v>
       </c>
       <c r="B18">
-        <v>16.843734614095499</v>
+        <v>17.836995474350601</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>59.724698076024701</v>
+        <v>53.8640661165118</v>
       </c>
       <c r="B19">
-        <v>17.2625135817038</v>
+        <v>16.843734614095499</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>64.512296440079794</v>
+        <v>59.724698076024701</v>
       </c>
       <c r="B20">
-        <v>17.3640751319065</v>
+        <v>17.2625135817038</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>78.6994317546487</v>
+        <v>64.512296440079794</v>
       </c>
       <c r="B21">
-        <v>16.768879463420902</v>
+        <v>17.3640751319065</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>84.294926002621693</v>
+        <v>78.6994317546487</v>
       </c>
       <c r="B22">
-        <v>17.9959040478963</v>
+        <v>16.768879463420902</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>87.979389214888201</v>
+        <v>84.294926002621693</v>
       </c>
       <c r="B23">
-        <v>18.2300789426825</v>
+        <v>17.9959040478963</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>90.060501405969305</v>
+        <v>87.979389214888201</v>
       </c>
       <c r="B24">
-        <v>20.317300051970101</v>
+        <v>18.2300789426825</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>90.583066688850494</v>
+        <v>90.060501405969305</v>
       </c>
       <c r="B25">
-        <v>17.5104336330621</v>
+        <v>20.317300051970101</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>90.6645351555198</v>
+        <v>90.583066688850494</v>
       </c>
       <c r="B26">
-        <v>17.322392522651899</v>
+        <v>17.5104336330621</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>103.34559851326</v>
+        <v>90.6645351555198</v>
       </c>
       <c r="B27">
-        <v>16.9708002474304</v>
+        <v>17.322392522651899</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>108.58861175365701</v>
+        <v>103.34559851326</v>
       </c>
       <c r="B28">
-        <v>19.027262137062799</v>
+        <v>16.9708002474304</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>109.772120416164</v>
+        <v>108.58861175365701</v>
       </c>
       <c r="B29">
-        <v>19.146460254567899</v>
+        <v>19.027262137062799</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>110.49551689066</v>
+        <v>109.772120416164</v>
       </c>
       <c r="B30">
-        <v>18.880470807898298</v>
+        <v>19.146460254567899</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>126.692929072306</v>
+        <v>110.49551689066</v>
       </c>
       <c r="B31">
-        <v>20.927895967858198</v>
+        <v>18.880470807898298</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>129.35570012778001</v>
+        <v>126.692929072306</v>
       </c>
       <c r="B32">
-        <v>18.156341230018999</v>
+        <v>20.927895967858198</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>133.653273060918</v>
+        <v>129.35570012778001</v>
       </c>
       <c r="B33">
-        <v>18.1062384108243</v>
+        <v>18.156341230018999</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>135.468194121495</v>
+        <v>133.653273060918</v>
       </c>
       <c r="B34">
-        <v>17.960078370510399</v>
+        <v>18.1062384108243</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>136.122542433441</v>
+        <v>135.468194121495</v>
       </c>
       <c r="B35">
-        <v>20.302822770526198</v>
+        <v>17.960078370510399</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>139.20569783076601</v>
+        <v>136.122542433441</v>
       </c>
       <c r="B36">
-        <v>18.6876274702148</v>
+        <v>20.302822770526198</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>142.95592620037499</v>
+        <v>139.20569783076601</v>
       </c>
       <c r="B37">
-        <v>20.022860982950501</v>
+        <v>18.6876274702148</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>143.07811972685201</v>
+        <v>142.95592620037499</v>
       </c>
       <c r="B38">
-        <v>20.096629235571701</v>
+        <v>20.022860982950501</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>147.504248004407</v>
+        <v>143.07811972685201</v>
       </c>
       <c r="B39">
-        <v>18.457958641130102</v>
+        <v>20.096629235571701</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>147.77600523084399</v>
+        <v>147.504248004407</v>
       </c>
       <c r="B40">
-        <v>19.841923887518298</v>
+        <v>18.457958641130102</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>161.59543031826601</v>
+        <v>147.77600523084399</v>
       </c>
       <c r="B41">
-        <v>17.327775074881</v>
+        <v>19.841923887518298</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>161.79664437659099</v>
+        <v>161.59543031826601</v>
       </c>
       <c r="B42">
-        <v>17.6608939670807</v>
+        <v>17.327775074881</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>167.606760887429</v>
+        <v>161.79664437659099</v>
       </c>
       <c r="B43">
-        <v>18.377107842531601</v>
+        <v>17.6608939670807</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>182.09100817330199</v>
+        <v>167.606760887429</v>
       </c>
       <c r="B44">
-        <v>16.674258631053601</v>
+        <v>18.377107842531601</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>188.02442871965499</v>
+        <v>182.09100817330199</v>
       </c>
       <c r="B45">
-        <v>20.5875425486661</v>
+        <v>16.674258631053601</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>193.50432832725301</v>
+        <v>188.02442871965499</v>
       </c>
       <c r="B46">
-        <v>20.581086104508099</v>
+        <v>20.5875425486661</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>194.00700181722601</v>
+        <v>193.50432832725301</v>
       </c>
       <c r="B47">
-        <v>20.2908117420595</v>
+        <v>20.581086104508099</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>197.83473489806099</v>
+        <v>194.00700181722601</v>
       </c>
       <c r="B48">
-        <v>17.876289656815</v>
+        <v>20.2908117420595</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>197.96479390934101</v>
+        <v>197.83473489806099</v>
       </c>
       <c r="B49">
-        <v>18.584667101883099</v>
+        <v>17.876289656815</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
+        <v>197.96479390934101</v>
+      </c>
+      <c r="B50">
+        <v>18.584667101883099</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>198.47814575768999</v>
       </c>
-      <c r="B50">
+      <c r="B51">
         <v>18.3577285400257</v>
       </c>
     </row>
@@ -4474,8 +4482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
-      <selection activeCell="F244" sqref="F244"/>
+    <sheetView topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="E244" sqref="E244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
